--- a/data/trans_dic/P18_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +681,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,27 +691,27 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,22 +721,37 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,9</t>
+          <t>0,0; 13,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,15</t>
+          <t>1,26; 10,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,49</t>
+          <t>0,0; 6,97</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,07</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,66%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,28</t>
+          <t>0,0; 46,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,91</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,07</t>
+          <t>0,0; 11,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 10,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,04</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 7,48</t>
+          <t>0,0; 22,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,68</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,67</t>
+          <t>1,45; 12,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,12</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,65</t>
+          <t>3,65; 19,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,18</t>
+          <t>0,0; 9,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,54</t>
+          <t>0,0; 9,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,94</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,28</t>
+          <t>0,98; 8,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,72</t>
+          <t>2,62; 11,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,62</t>
+          <t>0,79; 7,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,72</t>
+          <t>0,0; 11,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,4</t>
+          <t>0,63; 5,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,21</t>
+          <t>0,67; 5,8</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 13,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 7,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,03</t>
+          <t>2,6; 15,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,92</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,65</t>
+          <t>1,25; 10,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,51</t>
+          <t>1,49; 12,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 19,08</t>
+          <t>1,4; 12,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,23</t>
+          <t>8,06; 21,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,05</t>
+          <t>2,88; 12,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,03</t>
+          <t>4,42; 14,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,0</t>
+          <t>2,07; 11,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,95</t>
+          <t>1,79; 10,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,49</t>
+          <t>7,23; 16,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,94</t>
+          <t>1,93; 7,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 10,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 9,78</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 9,13</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 22,45</t>
+          <t>6,92; 22,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,73</t>
+          <t>1,45; 13,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 13,56</t>
+          <t>4,87; 21,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,75</t>
+          <t>3,66; 16,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 25,95</t>
+          <t>1,45; 14,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,15</t>
+          <t>12,46; 35,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,56</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,33</t>
+          <t>4,41; 24,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 21,85</t>
+          <t>2,09; 18,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,01</t>
+          <t>1,54; 16,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,6</t>
+          <t>10,3; 24,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,74</t>
+          <t>2,15; 9,54</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 18,4</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 14,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 12,17</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,39</t>
+          <t>6,18; 29,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>0,0; 16,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,36</t>
+          <t>2,44; 20,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 35,37</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 24,81</t>
+          <t>11,85; 39,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 16,45</t>
+          <t>2,49; 22,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 24,32</t>
+          <t>2,54; 22,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,78; 26,11</t>
+          <t>1,57; 15,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 14,67</t>
+          <t>0,0; 20,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,9</t>
+          <t>12,69; 31,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 17,82</t>
+          <t>2,74; 15,16</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 12,77</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 13,04</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,83</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,66</t>
+          <t>6,01; 16,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,09</t>
+          <t>0,86; 3,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,5</t>
+          <t>2,84; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,37</t>
+          <t>2,29; 7,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,71</t>
+          <t>1,7; 6,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,28</t>
+          <t>6,59; 12,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,98</t>
+          <t>2,62; 6,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,69</t>
+          <t>4,32; 8,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,89</t>
+          <t>2,03; 5,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,61</t>
+          <t>1,91; 6,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,46</t>
+          <t>7,05; 13,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,49</t>
+          <t>2,0; 4,69</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,37</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 5,91</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13307</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26604</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15985</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14690</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2574; 21422</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16809</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30177</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16981</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2336</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16980</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5950</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5469</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 63520</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17038</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17606</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22532</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13553</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13024</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 61857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19703</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17308</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18250</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7004</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14295</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2338</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8091</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13057</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8089</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8959</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10769</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27353</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7503</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11868</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2026; 17524</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11076</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4909; 26508</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13209</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17868</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2584; 21949</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5481; 24417</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1575; 13916</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 27260</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2231; 20968</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2837; 24733</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14780; 45595</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1902; 18481</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3759; 32581</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12047</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6317</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8277</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11145</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26791</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14741</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15923</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9307</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10012</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38838</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17005</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22240</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17584</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4196; 24282</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10453</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2009; 17588</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2327; 18781</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2827; 25441</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15285; 40211</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6231; 27479</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8227; 27723</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3566; 19276</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3817; 22482</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25371; 57509</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7761; 30198</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>11304; 36969</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>9339; 32133</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>10048; 37793</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18637</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13066</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10352</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9457</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21978</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11546</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6256</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40614</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12771</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24612</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16608</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18656</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9473; 31418</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2290; 21828</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5636; 24690</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4429; 19812</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2245; 22667</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12895; 36256</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12952</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4138; 23034</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1897; 16400</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2109; 22835</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24766; 59584</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5836; 25908</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>13586; 38575</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8467; 30765</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>8236; 35510</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6639</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23182</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13212</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6204</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12912</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>37278</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16680</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>12843</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>19801</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5579; 26304</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16879</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2119; 17697</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 26392</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11583; 38753</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3357; 29813</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2612; 23455</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1701; 16607</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 41961</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23844; 59138</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6564; 36331</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2657; 23993</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5692; 25424</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0; 50845</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>71402</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17255</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36818</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>35729</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>35050</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>79170</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>42819</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>53057</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>29268</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>40212</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>150572</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60074</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>89875</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>64996</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>75262</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45144; 124605</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7604; 35193</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21203; 57992</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>17931; 55729</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17759; 64478</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>56511; 107764</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26894; 66735</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>36256; 75293</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16620; 45692</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21104; 75533</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>113442; 213436</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>38245; 89858</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>64081; 116682</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>44358; 94674</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>46961; 118666</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>